--- a/Advanced Projects/HR_AssistantCheckCVs/Configuration/Config.xlsx
+++ b/Advanced Projects/HR_AssistantCheckCVs/Configuration/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hosni\Documents\UiPath\Advanced Projects\HR_AssistantCheckCVs\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFAC06-9230-4E5E-815E-0B6CB5E5F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4D8696-F26C-4D0C-9D43-3156963E18CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="589" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -39,18 +39,12 @@
     <t>strJD</t>
   </si>
   <si>
-    <t>strApiKey</t>
-  </si>
-  <si>
     <t>strRequestURL</t>
   </si>
   <si>
     <t>strFolderPath</t>
   </si>
   <si>
-    <t>Looking for a developer skilled in intelligent automation beyond traditional RPA. Responsibilities include designing, developing, testing, and deploying automation solutions while following strict standards and supporting production systems. Requires experience with UiPath (Power Automate and Power Platform are a plus), strong analytical skills, and ability to estimate delivery effort. Collaboration with senior consultants, excellent communication skills, and fluent English are essential. Curiosity, continuous learning, and flexibility in working hours are expected.</t>
-  </si>
-  <si>
     <t>strPrompt</t>
   </si>
   <si>
@@ -63,18 +57,12 @@
     <t>EvaluationThreshold</t>
   </si>
   <si>
-    <t>Act as an expert Technical Recruiter. Analyze the provided CV text against the Job Description (JD). CV Text: {0} Job Description: {1} Instructions: Provide the response ONLY using the following template format: Name: [Extract Name] Email: [Extract Email] Phone Number: [Extract Phone Number] Feedback: [Brief feedback, max 15 words] Criteria: [Must be one of: Excellent / Good / Poor] Evaluation: [Percentage]%</t>
-  </si>
-  <si>
     <t>The specific API endpoint address</t>
   </si>
   <si>
     <t>The unique authorization key to access API services.</t>
   </si>
   <si>
-    <t>Stores the detailed Job Description requirementس.</t>
-  </si>
-  <si>
     <t>The local  directory path where the source CV files are stored.</t>
   </si>
   <si>
@@ -88,13 +76,126 @@
   </si>
   <si>
     <t>https://generativelanguage.googleapis.com/v1beta/models/gemini-2.5-flash-lite:generateContent</t>
+  </si>
+  <si>
+    <t>RetrySeconds</t>
+  </si>
+  <si>
+    <t>RetryAttempts</t>
+  </si>
+  <si>
+    <t>strRangePage</t>
+  </si>
+  <si>
+    <t>strSuccessHtmlMail</t>
+  </si>
+  <si>
+    <t>strRejectionHtmlMail</t>
+  </si>
+  <si>
+    <t>strSubjectMail</t>
+  </si>
+  <si>
+    <t>Application Update: TechNova Solutions HR</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+&lt;head&gt;
+&lt;style&gt;
+    body { font-family: 'Segoe UI', Tahoma, Geneva, Verdana, sans-serif; line-height: 1.6; color: #333; }
+    .content { padding: 10px 0; font-size: 15px; }
+    .footer { margin-top: 20px; border-top: 1px solid #eee; padding-top: 10px; color: #555; }
+&lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+   &lt;div Class="content"&gt;
+    Dear &lt;strong&gt;{{CandidateName}}&lt;/strong&gt;,&lt;br&gt;&lt;br&gt;
+    We are excited to inform you that your application for the &lt;strong&gt;RPA Developer&lt;/strong&gt; position has been &lt;strong&gt;successfully shortlisted&lt;/strong&gt;!&lt;br&gt;&lt;br&gt;
+    Your portfolio and experience truly stood out to us, and we are looking forward to a &lt;strong&gt;Technical Interview&lt;/strong&gt; to explore how your skills align with our goals at &lt;strong&gt;TechNova Solutions&lt;/strong&gt;.&lt;br&gt;
+    Our HR team will reach out within the next 48 hours to find a time that works best for your schedule. We are eager to learn more about your expertise!&lt;br&gt;&lt;br&gt;
+    &lt;strong&gt;Best Regards,&lt;/strong&gt;&lt;br&gt;
+    &lt;strong&gt;TechNova Solutions HR Team&lt;/strong&gt;
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+&lt;head&gt;
+&lt;style&gt;
+    body { font-family: 'Segoe UI', Tahoma, Geneva, Verdana, sans-serif; line-height: 1.6; color: #333; }
+    .content { padding: 10px 0; }
+&lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;div Class="content"&gt;
+        Dear &lt;strong&gt;{{CandidateName}}&lt;/strong&gt;,&lt;br&gt;
+        Thank you for applying to &lt;strong&gt;TechNova Solutions&lt;/strong&gt;.&lt;br&gt;&lt;br&gt;
+        After carefully reviewing your profile, we &lt;strong&gt;regret to inform you&lt;/strong&gt; that we will &lt;strong&gt;not be moving forward&lt;/strong&gt; with your application at this time.&lt;br&gt;
+        We appreciate your interest and wish you the best of luck in your future endeavors.&lt;br&gt;&lt;br&gt;
+        Best Regards,&lt;br&gt;
+        &lt;strong&gt;TechNova Solutions HR Team&lt;/strong&gt;
+    &lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Stores the detailed Job Description requirement.</t>
+  </si>
+  <si>
+    <t>Email body in case of Success</t>
+  </si>
+  <si>
+    <t>Email body in case of Rejection</t>
+  </si>
+  <si>
+    <t>Email Subject</t>
+  </si>
+  <si>
+    <t>Interval time for each retry</t>
+  </si>
+  <si>
+    <t>Number of retries</t>
+  </si>
+  <si>
+    <t>Number of pages to extract form individual PDF</t>
+  </si>
+  <si>
+    <t>strDirectorySourceName</t>
+  </si>
+  <si>
+    <t>strSecondaryApiKey</t>
+  </si>
+  <si>
+    <t>strPrimaryApiKey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notice: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This project is specifically designed for Google Gemini APIs. If you intend to use a different LLM (e.g., OpenAI, Deepseek), you must reconfigure the HTTP Request activities and update the JSON parsing logic accordingly.</t>
+    </r>
+  </si>
+  <si>
+    <t>Constant Name of directory source (Name of folder)</t>
+  </si>
+  <si>
+    <t>The Secondary apikey in case of any failure caused during runtime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,30 +243,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -442,19 +547,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="46.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
     <col min="3" max="3" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,81 +570,159 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="112.8" customHeight="1">
+    <row r="2" spans="1:4" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="50.4" customHeight="1">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>19</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{E7681299-1A97-4992-A3BD-5C646130D266}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E7681299-1A97-4992-A3BD-5C646130D266}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
